--- a/fields.xlsx
+++ b/fields.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\houke\Desktop\onshore_CB\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="60" windowWidth="13995" windowHeight="7380"/>
+    <workbookView xWindow="600" yWindow="60" windowWidth="14000" windowHeight="7380" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="description" sheetId="2" r:id="rId1"/>
-    <sheet name="daily_cb" sheetId="1" r:id="rId2"/>
-    <sheet name="daily_trade" sheetId="3" r:id="rId3"/>
+    <sheet name="cb_description" sheetId="2" r:id="rId1"/>
+    <sheet name="equity_description" sheetId="4" r:id="rId2"/>
+    <sheet name="daily_cb" sheetId="1" r:id="rId3"/>
+    <sheet name="daily_equity" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
   <si>
     <t>curyield</t>
   </si>
@@ -27,9 +33,6 @@
     <t>strbvalue</t>
   </si>
   <si>
-    <t>strbpremium</t>
-  </si>
-  <si>
     <t>strbpremiumratio</t>
   </si>
   <si>
@@ -42,24 +45,12 @@
     <t>convvalue</t>
   </si>
   <si>
-    <t>convpremium</t>
-  </si>
-  <si>
     <t>convpremiumratio</t>
   </si>
   <si>
-    <t>convpe</t>
-  </si>
-  <si>
-    <t>convpb</t>
-  </si>
-  <si>
     <t>diluterate</t>
   </si>
   <si>
-    <t>impliedvol</t>
-  </si>
-  <si>
     <t>到期收益率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>纯债溢价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>转股价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,30 +79,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>转股溢价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>转股溢价率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>转股PE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转股PB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>稀释比率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>隐含波动率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fields</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,9 +113,6 @@
     <t>industry_gics</t>
   </si>
   <si>
-    <t>industry_gicscode</t>
-  </si>
-  <si>
     <t>amount</t>
   </si>
   <si>
@@ -171,14 +139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>行业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行业代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>债项评级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -200,6 +160,107 @@
   </si>
   <si>
     <t>剩余比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>industry_csrc12_n</t>
+  </si>
+  <si>
+    <t>industry_sw</t>
+  </si>
+  <si>
+    <t>万得行业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证监行业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申万行业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>amt</t>
+  </si>
+  <si>
+    <t>pct_chg</t>
+  </si>
+  <si>
+    <t>fields</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收盘价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涨跌幅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev</t>
+  </si>
+  <si>
+    <t>pe_ttm</t>
+  </si>
+  <si>
+    <t>estpe_FY1</t>
+  </si>
+  <si>
+    <t>estpe_FY2</t>
+  </si>
+  <si>
+    <t>pb_lf</t>
+  </si>
+  <si>
+    <t>estpb_FY1</t>
+  </si>
+  <si>
+    <t>市值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PETTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE_2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE_2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB_2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正股代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -263,12 +324,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -310,7 +374,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -345,7 +409,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -554,95 +618,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="40.453125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
         <v>35</v>
       </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
         <v>36</v>
       </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
         <v>38</v>
-      </c>
-      <c r="B7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -653,148 +703,96 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -805,14 +803,210 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
